--- a/mfa/S_cerevisiae/run_files/Plim__D_0_22/scGEM_Plim__D_0_22_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Plim__D_0_22/scGEM_Plim__D_0_22_completeMFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470368 ala__L_c + 0.185836 arg__L_c + 0.223389 asn__L_c + 0.223389 asp__L_c + 0.006740 cys__L_c + 0.372636 gln__L_c + 0.372636 glu__L_c + 0.428001 gly_c + 0.092918 his__L_c + 0.283569 ile__L_c + 0.385634 leu__L_c + 0.316307 lys__L_c + 0.054884 met__L_c + 0.181022 phe__L_c + 0.203168 pro__L_c + 0.256608 ser__L_c + 0.268163 thr__L_c + 0.031294 trp__L_c + 0.094362 tyr__L_c + 0.352896 val__L_c + 0.480524 mannan_c + 0.745670 13BDglucan_c + 0.196229 16BDglucan_c + 0.017629 chtn_c + 0.359498 glycogen_c + 0.018020 tre_c + 0.003033 ergstest_c + 0.011846 ergst_c + 0.003079 pail_c + 0.011490 pc_c + 0.003088 pe_c + 0.002652 ps_c + 0.003056 tag_c + 0.001714 ipcbiom_c + 0.000660 ffabiom_c + 0.064733 ctp_c + 0.066616 gtp_c + 0.086745 utp_c + 0.003091 datp_c + 0.002087 dctp_c + 0.002087 dgtp_c + 0.003091 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 103.055291 atp_c + 93.381033 h2o_c --&gt; 4.803821 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 5.098888 ppi_c</t>
+    <t xml:space="preserve">0.470368 ala__L_c + 0.185836 arg__L_c + 0.223389 asn__L_c + 0.223389 asp__L_c + 0.006740 cys__L_c + 0.372636 gln__L_c + 0.372636 glu__L_c + 0.428001 gly_c + 0.092918 his__L_c + 0.283569 ile__L_c + 0.385634 leu__L_c + 0.316307 lys__L_c + 0.054884 met__L_c + 0.181022 phe__L_c + 0.203168 pro__L_c + 0.256608 ser__L_c + 0.268163 thr__L_c + 0.031294 trp__L_c + 0.094362 tyr__L_c + 0.352896 val__L_c + 0.480524 mannan_c + 0.745670 13BDglucan_c + 0.196229 16BDglucan_c + 0.017629 chtn_c + 0.359498 glycogen_c + 0.018020 tre_c + 0.003033 ergstest_c + 0.011846 ergst_c + 0.003079 pail_c + 0.011490 pc_c + 0.003088 pe_c + 0.002652 ps_c + 0.003056 tag_c + 0.001714 ipcbiom_c + 0.000660 ffabiom_c + 0.064733 ctp_c + 0.066616 gtp_c + 0.086745 utp_c + 0.003091 datp_c + 0.002087 dctp_c + 0.002087 dgtp_c + 0.003091 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 144.333379 atp_c + 134.659121 h2o_c --&gt; 4.803821 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 5.098888 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14726,10 +14726,10 @@
   </sheetPr>
   <dimension ref="A1:N576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A576" activeCellId="0" sqref="A576"/>
+      <selection pane="bottomLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33684,7 +33684,7 @@
   </sheetPr>
   <dimension ref="A1:L486"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A486" activeCellId="0" sqref="A486"/>
